--- a/fhir/ig/mpi/StructureDefinition-MINSALAcompanante.xlsx
+++ b/fhir/ig/mpi/StructureDefinition-MINSALAcompanante.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-26T16:48:32-03:00</t>
+    <t>2023-11-02T10:08:03-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
